--- a/log.xlsx
+++ b/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayataebisawa/AtCoder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABA6907-911C-8E41-8641-777D578F23CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E155FC-7EA2-1D48-8A8E-F51FE23E0487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="5580" windowWidth="28300" windowHeight="15420" xr2:uid="{DC6602E5-D59C-F44D-BF30-EAE50B1D9D6A}"/>
   </bookViews>
@@ -205,12 +205,79 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>目標</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4661-8B44-B231-90E945673ED0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1970282031"/>
+        <c:axId val="2012527903"/>
+      </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$1</c:f>
@@ -218,69 +285,6 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>累計AC数</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4661-8B44-B231-90E945673ED0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>目標</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -311,36 +315,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -349,6 +338,87 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4661-8B44-B231-90E945673ED0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>当日AC数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4661-8B44-B231-90E945673ED0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -471,6 +541,64 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="2012527903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1970282031"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1970282031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2012527903"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1438,7 +1566,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1506,6 +1634,12 @@
       <c r="A5" s="1">
         <v>43875</v>
       </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
       <c r="D5">
         <f>D4+3</f>
         <v>33</v>

--- a/log.xlsx
+++ b/log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayataebisawa/AtCoder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayataebisawa/Desktop/AtCoder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E155FC-7EA2-1D48-8A8E-F51FE23E0487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B43A48-9B37-3A44-B431-F23094664831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="5580" windowWidth="28300" windowHeight="15420" xr2:uid="{DC6602E5-D59C-F44D-BF30-EAE50B1D9D6A}"/>
+    <workbookView xWindow="2520" yWindow="3440" windowWidth="28300" windowHeight="15420" xr2:uid="{DC6602E5-D59C-F44D-BF30-EAE50B1D9D6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -210,22 +210,22 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>目標</c:v>
+                  <c:v>当日AC数</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -235,10 +235,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>Sheet1!$B$2:$B$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="199"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -250,13 +250,22 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4661-8B44-B231-90E945673ED0}"/>
+              <c16:uniqueId val="{00000005-4661-8B44-B231-90E945673ED0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -269,12 +278,234 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="1970282031"/>
-        <c:axId val="2012527903"/>
+        <c:axId val="463905455"/>
+        <c:axId val="464268447"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>目標</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="199"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4661-8B44-B231-90E945673ED0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -299,26 +530,14 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:f>Sheet1!$C$2:$C$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="199"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -330,6 +549,18 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -338,87 +569,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4661-8B44-B231-90E945673ED0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>当日AC数</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4661-8B44-B231-90E945673ED0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -483,6 +633,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="30"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -542,7 +693,7 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2012527903"/>
+        <c:axId val="464268447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -579,12 +730,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1970282031"/>
+        <c:crossAx val="463905455"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1970282031"/>
+        <c:axId val="463905455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -593,7 +744,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2012527903"/>
+        <c:crossAx val="464268447"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1563,10 +1714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CFC898-D619-3347-AD60-62AFFFE4B520}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1611,8 +1762,8 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <f>D2+3</f>
-        <v>27</v>
+        <f>D2+1</f>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1626,8 +1777,8 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <f>D3+3</f>
-        <v>30</v>
+        <f>D3+1</f>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1641,26 +1792,38 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <f>D4+3</f>
-        <v>33</v>
+        <f>D4+1</f>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>43876</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
       <c r="D6">
-        <f t="shared" ref="D6:D10" si="0">D5+3</f>
-        <v>36</v>
+        <f>D5+1</f>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>43877</v>
       </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>39</v>
+      </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <f>D6+1</f>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1668,20 +1831,425 @@
         <v>43878</v>
       </c>
       <c r="D8">
+        <f>D7+1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>43879</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D61" si="0">D8+1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>43880</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>43881</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>43882</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>43883</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>43884</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>43885</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>43886</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>43887</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>43888</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>43889</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>43890</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="D9">
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>43891</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>43892</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>43893</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="D10">
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>43894</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>43895</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>43896</v>
+      </c>
+      <c r="D26">
         <f t="shared" si="0"/>
         <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>43897</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>43898</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>43899</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>43900</v>
+      </c>
+      <c r="C30">
+        <v>49</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>50</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>43902</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>43903</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>43904</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>43905</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>43906</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>43907</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>43908</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/log.xlsx
+++ b/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayataebisawa/Desktop/AtCoder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B43A48-9B37-3A44-B431-F23094664831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D4CA24-0FB5-F84C-AE38-AFA7195BCE62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="3440" windowWidth="28300" windowHeight="15420" xr2:uid="{DC6602E5-D59C-F44D-BF30-EAE50B1D9D6A}"/>
   </bookViews>
@@ -562,6 +562,9 @@
                 <c:pt idx="29">
                   <c:v>50</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>56</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -745,6 +748,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="464268447"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1716,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CFC898-D619-3347-AD60-62AFFFE4B520}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1762,7 +1766,7 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <f>D2+1</f>
+        <f t="shared" ref="D3:D8" si="0">D2+1</f>
         <v>25</v>
       </c>
     </row>
@@ -1777,7 +1781,7 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <f>D3+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
@@ -1792,7 +1796,7 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <f>D4+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
@@ -1807,7 +1811,7 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <f>D5+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
@@ -1822,7 +1826,7 @@
         <v>39</v>
       </c>
       <c r="D7">
-        <f>D6+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
@@ -1831,7 +1835,7 @@
         <v>43878</v>
       </c>
       <c r="D8">
-        <f>D7+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -1840,7 +1844,7 @@
         <v>43879</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:D61" si="0">D8+1</f>
+        <f t="shared" ref="D9:D61" si="1">D8+1</f>
         <v>31</v>
       </c>
     </row>
@@ -1849,7 +1853,7 @@
         <v>43880</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
@@ -1858,7 +1862,7 @@
         <v>43881</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
@@ -1867,7 +1871,7 @@
         <v>43882</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
@@ -1876,7 +1880,7 @@
         <v>43883</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
@@ -1885,7 +1889,7 @@
         <v>43884</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -1894,7 +1898,7 @@
         <v>43885</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -1903,7 +1907,7 @@
         <v>43886</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
     </row>
@@ -1912,7 +1916,7 @@
         <v>43887</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
     </row>
@@ -1921,7 +1925,7 @@
         <v>43888</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -1930,7 +1934,7 @@
         <v>43889</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
@@ -1939,7 +1943,7 @@
         <v>43890</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
@@ -1948,7 +1952,7 @@
         <v>43891</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
     </row>
@@ -1957,7 +1961,7 @@
         <v>43892</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
@@ -1966,7 +1970,7 @@
         <v>43893</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -1975,7 +1979,7 @@
         <v>43894</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
     </row>
@@ -1984,7 +1988,7 @@
         <v>43895</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
     </row>
@@ -1993,7 +1997,7 @@
         <v>43896</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
@@ -2002,7 +2006,7 @@
         <v>43897</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
@@ -2011,7 +2015,7 @@
         <v>43898</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
@@ -2020,7 +2024,7 @@
         <v>43899</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
     </row>
@@ -2032,7 +2036,7 @@
         <v>49</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
     </row>
@@ -2047,7 +2051,7 @@
         <v>50</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
     </row>
@@ -2056,7 +2060,7 @@
         <v>43902</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
@@ -2065,7 +2069,7 @@
         <v>43903</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
     </row>
@@ -2074,7 +2078,7 @@
         <v>43904</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
     </row>
@@ -2083,7 +2087,7 @@
         <v>43905</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
     </row>
@@ -2092,7 +2096,7 @@
         <v>43906</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
     </row>
@@ -2100,8 +2104,11 @@
       <c r="A37" s="1">
         <v>43907</v>
       </c>
+      <c r="C37">
+        <v>56</v>
+      </c>
       <c r="D37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
     </row>
@@ -2110,145 +2117,145 @@
         <v>43908</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="D39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="D40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="D41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="D42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="D43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="D44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="D45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="D46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="D47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="D48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>

--- a/log.xlsx
+++ b/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayataebisawa/Desktop/AtCoder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D4CA24-0FB5-F84C-AE38-AFA7195BCE62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAF8E28-9F92-B045-90EA-E337B2DB4A7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="3440" windowWidth="28300" windowHeight="15420" xr2:uid="{DC6602E5-D59C-F44D-BF30-EAE50B1D9D6A}"/>
   </bookViews>
@@ -564,6 +564,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1720,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CFC898-D619-3347-AD60-62AFFFE4B520}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2122,138 +2125,210 @@
       </c>
     </row>
     <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>43909</v>
+      </c>
       <c r="D39">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>43910</v>
+      </c>
       <c r="D40">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>43911</v>
+      </c>
       <c r="D41">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>43912</v>
+      </c>
       <c r="D42">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>43913</v>
+      </c>
       <c r="D43">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>43914</v>
+      </c>
       <c r="D44">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43915</v>
+      </c>
       <c r="D45">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>43916</v>
+      </c>
+      <c r="C46">
+        <v>61</v>
+      </c>
       <c r="D46">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>43917</v>
+      </c>
       <c r="D47">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>43918</v>
+      </c>
       <c r="D48">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>43919</v>
+      </c>
       <c r="D49">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>43920</v>
+      </c>
       <c r="D50">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="4:4">
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>43921</v>
+      </c>
       <c r="D51">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="4:4">
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>43922</v>
+      </c>
       <c r="D52">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="4:4">
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>43923</v>
+      </c>
       <c r="D53">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="4:4">
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>43924</v>
+      </c>
       <c r="D54">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="4:4">
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>43925</v>
+      </c>
       <c r="D55">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>43926</v>
+      </c>
       <c r="D56">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>43927</v>
+      </c>
       <c r="D57">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>43928</v>
+      </c>
       <c r="D58">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>43929</v>
+      </c>
       <c r="D59">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>43930</v>
+      </c>
       <c r="D60">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>43931</v>
+      </c>
       <c r="D61">
         <f t="shared" si="1"/>
         <v>83</v>

--- a/log.xlsx
+++ b/log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayataebisawa/Desktop/AtCoder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAF8E28-9F92-B045-90EA-E337B2DB4A7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7263214-A1BD-3A4B-AF4C-51F3CEA55972}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="3440" windowWidth="28300" windowHeight="15420" xr2:uid="{DC6602E5-D59C-F44D-BF30-EAE50B1D9D6A}"/>
+    <workbookView xWindow="13760" yWindow="460" windowWidth="28300" windowHeight="15420" xr2:uid="{DC6602E5-D59C-F44D-BF30-EAE50B1D9D6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,18 +70,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -118,7 +118,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -136,7 +136,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -154,7 +154,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -186,7 +186,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -198,7 +198,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-JP"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -258,6 +258,12 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -567,6 +573,12 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -619,7 +631,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -631,7 +643,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2008685487"/>
@@ -679,7 +691,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -691,7 +703,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2008681391"/>
@@ -721,7 +733,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -733,7 +745,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-JP"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="463905455"/>
@@ -780,7 +792,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -792,7 +804,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -829,7 +841,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="en-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1425,7 +1437,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1723,13 +1735,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CFC898-D619-3347-AD60-62AFFFE4B520}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1743,7 +1755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43872</v>
       </c>
@@ -1758,7 +1770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43873</v>
       </c>
@@ -1773,7 +1785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43874</v>
       </c>
@@ -1788,7 +1800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43875</v>
       </c>
@@ -1803,7 +1815,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43876</v>
       </c>
@@ -1818,7 +1830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43877</v>
       </c>
@@ -1833,7 +1845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43878</v>
       </c>
@@ -1842,7 +1854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43879</v>
       </c>
@@ -1851,7 +1863,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43880</v>
       </c>
@@ -1860,7 +1872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43881</v>
       </c>
@@ -1869,7 +1881,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43882</v>
       </c>
@@ -1878,7 +1890,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43883</v>
       </c>
@@ -1887,7 +1899,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43884</v>
       </c>
@@ -1896,7 +1908,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43885</v>
       </c>
@@ -1905,7 +1917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43886</v>
       </c>
@@ -1914,7 +1926,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43887</v>
       </c>
@@ -1923,7 +1935,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43888</v>
       </c>
@@ -1932,7 +1944,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43889</v>
       </c>
@@ -1941,7 +1953,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43890</v>
       </c>
@@ -1950,7 +1962,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43891</v>
       </c>
@@ -1959,7 +1971,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43892</v>
       </c>
@@ -1968,7 +1980,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43893</v>
       </c>
@@ -1977,7 +1989,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43894</v>
       </c>
@@ -1986,7 +1998,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43895</v>
       </c>
@@ -1995,7 +2007,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43896</v>
       </c>
@@ -2004,7 +2016,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43897</v>
       </c>
@@ -2013,7 +2025,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43898</v>
       </c>
@@ -2022,7 +2034,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43899</v>
       </c>
@@ -2031,7 +2043,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43900</v>
       </c>
@@ -2043,7 +2055,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43901</v>
       </c>
@@ -2058,7 +2070,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43902</v>
       </c>
@@ -2067,7 +2079,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43903</v>
       </c>
@@ -2076,7 +2088,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43904</v>
       </c>
@@ -2085,7 +2097,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43905</v>
       </c>
@@ -2094,7 +2106,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43906</v>
       </c>
@@ -2103,7 +2115,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43907</v>
       </c>
@@ -2115,7 +2127,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43908</v>
       </c>
@@ -2124,7 +2136,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43909</v>
       </c>
@@ -2133,7 +2145,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43910</v>
       </c>
@@ -2142,7 +2154,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43911</v>
       </c>
@@ -2151,7 +2163,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43912</v>
       </c>
@@ -2160,7 +2172,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43913</v>
       </c>
@@ -2169,7 +2181,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43914</v>
       </c>
@@ -2178,7 +2190,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43915</v>
       </c>
@@ -2187,7 +2199,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43916</v>
       </c>
@@ -2199,7 +2211,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43917</v>
       </c>
@@ -2208,7 +2220,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43918</v>
       </c>
@@ -2217,7 +2229,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43919</v>
       </c>
@@ -2226,7 +2238,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43920</v>
       </c>
@@ -2235,7 +2247,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43921</v>
       </c>
@@ -2244,7 +2256,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43922</v>
       </c>
@@ -2253,7 +2265,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43923</v>
       </c>
@@ -2262,7 +2274,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43924</v>
       </c>
@@ -2271,25 +2283,37 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43925</v>
       </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>67</v>
+      </c>
       <c r="D55">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43926</v>
       </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>68</v>
+      </c>
       <c r="D56">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43927</v>
       </c>
@@ -2298,7 +2322,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43928</v>
       </c>
@@ -2307,7 +2331,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43929</v>
       </c>
@@ -2316,7 +2340,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43930</v>
       </c>
@@ -2325,7 +2349,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43931</v>
       </c>

--- a/log.xlsx
+++ b/log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayataebisawa/Desktop/AtCoder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7263214-A1BD-3A4B-AF4C-51F3CEA55972}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BAF499-FA35-914D-953C-96787B3B99F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13760" yWindow="460" windowWidth="28300" windowHeight="15420" xr2:uid="{DC6602E5-D59C-F44D-BF30-EAE50B1D9D6A}"/>
+    <workbookView xWindow="5300" yWindow="460" windowWidth="28300" windowHeight="15420" xr2:uid="{DC6602E5-D59C-F44D-BF30-EAE50B1D9D6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -266,6 +266,9 @@
                 <c:pt idx="54">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -579,6 +582,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1736,7 +1742,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2326,6 +2332,12 @@
       <c r="A58" s="1">
         <v>43928</v>
       </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>69</v>
+      </c>
       <c r="D58">
         <f t="shared" si="1"/>
         <v>80</v>

--- a/log.xlsx
+++ b/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayataebisawa/Desktop/AtCoder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BAF499-FA35-914D-953C-96787B3B99F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A92A9A-2016-B742-9068-00C8BFDAEA27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5300" yWindow="460" windowWidth="28300" windowHeight="15420" xr2:uid="{DC6602E5-D59C-F44D-BF30-EAE50B1D9D6A}"/>
   </bookViews>
@@ -269,6 +269,9 @@
                 <c:pt idx="56">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -585,6 +588,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1742,7 +1748,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2347,6 +2353,12 @@
       <c r="A59" s="1">
         <v>43929</v>
       </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>70</v>
+      </c>
       <c r="D59">
         <f t="shared" si="1"/>
         <v>81</v>

--- a/log.xlsx
+++ b/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayataebisawa/Desktop/AtCoder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A92A9A-2016-B742-9068-00C8BFDAEA27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2E40B1-E984-0449-80F7-0F1A30EC3ABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5300" yWindow="460" windowWidth="28300" windowHeight="15420" xr2:uid="{DC6602E5-D59C-F44D-BF30-EAE50B1D9D6A}"/>
   </bookViews>
@@ -272,6 +272,9 @@
                 <c:pt idx="57">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -508,6 +511,186 @@
                 <c:pt idx="59">
                   <c:v>83</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>143</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -591,6 +774,9 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1745,10 +1931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CFC898-D619-3347-AD60-62AFFFE4B520}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1871,7 +2057,7 @@
         <v>43879</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:D61" si="1">D8+1</f>
+        <f t="shared" ref="D9:D72" si="1">D8+1</f>
         <v>31</v>
       </c>
     </row>
@@ -2380,6 +2566,592 @@
       <c r="D61">
         <f t="shared" si="1"/>
         <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43932</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43933</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43934</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43935</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>74</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>43937</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>43938</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>43939</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>43940</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>43941</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>43942</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>43943</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ref="D73:D121" si="2">D72+1</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>43944</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>43945</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>43946</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>43947</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>43948</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>43949</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>43950</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>43951</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>43952</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>43953</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>43954</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>43955</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>43956</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>43957</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>43958</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>43959</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>43960</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>43961</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>43962</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>43963</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>43964</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>43965</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>43966</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>43967</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>43968</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>43969</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>43970</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>43971</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>43972</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>43973</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>43974</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>43975</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>43976</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>43977</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>43978</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>43979</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>43980</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>43981</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>43982</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>43983</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>43984</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>43985</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>43986</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>43987</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>43988</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>43989</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>43990</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>43991</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>43993</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>43994</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>43995</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>43999</v>
       </c>
     </row>
   </sheetData>
